--- a/docs/schet_factura.xlsx
+++ b/docs/schet_factura.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Счет-фактура № _______ от _____________ г.</t>
-  </si>
-  <si>
-    <t>Дата оборота по реализации:</t>
-  </si>
-  <si>
-    <t>06.09.2011 15:42:37</t>
   </si>
   <si>
     <t xml:space="preserve">Поставщик: </t>
@@ -348,14 +342,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -395,9 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -434,6 +422,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,6 +444,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,13 +471,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -814,22 +813,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="9" style="27" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="27" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="21" customWidth="1"/>
     <col min="9" max="9" width="12.83203125" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" customWidth="1"/>
@@ -837,1423 +836,1392 @@
     <col min="13" max="13" width="0.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-    </row>
-    <row r="2" spans="1:11" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="11.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="49"/>
+      <c r="I21" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="49"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="B23" s="32">
         <v>2</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+      <c r="C23" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="D23" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="E23" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="F23" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="G23" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="H23" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="I23" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-    </row>
-    <row r="12" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="J23" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+      <c r="K23" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-    </row>
-    <row r="17" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-    </row>
-    <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="45"/>
-    </row>
-    <row r="24" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="15" t="s">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="24">
-        <v>1</v>
-      </c>
-      <c r="B25" s="24">
-        <v>2</v>
-      </c>
-      <c r="C25" s="24">
-        <v>3</v>
-      </c>
-      <c r="D25" s="24">
-        <v>4</v>
-      </c>
-      <c r="E25" s="24">
-        <v>5</v>
-      </c>
-      <c r="F25" s="8">
-        <v>6</v>
-      </c>
-      <c r="G25" s="7">
-        <v>7</v>
-      </c>
-      <c r="H25" s="7">
-        <v>8</v>
-      </c>
-      <c r="I25" s="7">
-        <v>9</v>
-      </c>
-      <c r="J25" s="7">
-        <v>10</v>
-      </c>
-      <c r="K25" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="20"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="E27" s="30"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="32"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="17" t="s">
+      <c r="I28" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="31" t="s">
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
         <v>35</v>
       </c>
+      <c r="B29" s="33"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="20"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="1"/>
-      <c r="I30" s="18" t="s">
+      <c r="H30" s="20"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="1"/>
+      <c r="I31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-    </row>
-    <row r="33" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="25"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="1"/>
-      <c r="I33" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A16:K16"/>
+  <mergeCells count="27">
+    <mergeCell ref="A14:K14"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A16:K16"/>
     <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A18:K18"/>
     <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
     <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:K21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
